--- a/Primbon OLS/Tiket Pak Firman/Step by Step.xlsx
+++ b/Primbon OLS/Tiket Pak Firman/Step by Step.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\Tiket Pak Firman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A411E9-218E-4842-A518-10842FDD5536}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2B103-8DB3-46E1-B64B-A3F9F4F9962D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7E6E40B-5C41-4796-8505-1E6A20C0FFE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C7E6E40B-5C41-4796-8505-1E6A20C0FFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="SELISIH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5CB25A-8439-4CC2-89D3-5ADE819C84FC}">
   <dimension ref="B2:AT312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3218,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F83C286-A059-47D3-A31C-BA435181DCEA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Primbon OLS/Tiket Pak Firman/Step by Step.xlsx
+++ b/Primbon OLS/Tiket Pak Firman/Step by Step.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\Tiket Pak Firman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2B103-8DB3-46E1-B64B-A3F9F4F9962D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75463D1F-6D0F-45FB-BC25-5287B3482455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C7E6E40B-5C41-4796-8505-1E6A20C0FFE6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SELISIH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <r>
       <t>D:\GIT\OLS-Notes\Primbon OLS\Tiket Pak Firman\</t>
@@ -672,6 +672,93 @@
   </si>
   <si>
     <t>Done…!!!</t>
+  </si>
+  <si>
+    <t>mencari selisih perbedaan monitor billing</t>
+  </si>
+  <si>
+    <t>look for the difference between monitor billing</t>
+  </si>
+  <si>
+    <t>Tidak ada di OLS:</t>
+  </si>
+  <si>
+    <t>0000415/4/10/02/2022</t>
+  </si>
+  <si>
+    <t>0000597/4/08/01/2022</t>
+  </si>
+  <si>
+    <t>0000897/4/01/11/2021</t>
+  </si>
+  <si>
+    <t>0000940/4/01/11/2021</t>
+  </si>
+  <si>
+    <t>Contoh cek:</t>
+  </si>
+  <si>
+    <t>select a.*</t>
+  </si>
+  <si>
+    <t>from OPLAgreement a</t>
+  </si>
+  <si>
+    <r>
+      <t>where a.AgreementNumber = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000415/4/10/02/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <t>from Tb_BIL_PaySchedule a</t>
+  </si>
+  <si>
+    <t>where a.IdOPLAgreement = 2958;</t>
+  </si>
+  <si>
+    <t>from Tb_BIL_PayScheduleDtl a</t>
+  </si>
+  <si>
+    <t>where a.IdTb_BIL_PaySchedule = 3984</t>
+  </si>
+  <si>
+    <t>order by a.StartPeriod desc, a.EndPeriod desc;</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/MGTIntegrationPaySchdl</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/BILSchedule</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/BILCreation/DetailBilling/3983</t>
+  </si>
+  <si>
+    <t>Catatan ini diambil dari:</t>
+  </si>
+  <si>
+    <t>20220325FRI</t>
+  </si>
+  <si>
+    <t>Monitor Billing</t>
   </si>
 </sst>
 </file>
@@ -784,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -796,6 +883,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1692,6 +1785,379 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9152381" cy="4314286"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9180FF4A-1BA5-496F-9C72-8763562E66BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1333500"/>
+          <a:ext cx="9152381" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2704762" cy="2038095"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C0F9C4-749B-459F-911B-F4D1D868FF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="21526500"/>
+          <a:ext cx="2704762" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="6933333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69543AFF-250A-4032-B056-FB6788CEB96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14287500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="6933333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30541D2-FAA6-447C-BCA6-E447143EF6D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="14439900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="6933333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02833D77-5180-4DEA-AF0F-9DBCA6763E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="24193500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="6933333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812F3044-ED40-4DAC-8BDF-74C24C25370C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="24345900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="12780952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E425F87-B3C9-40A8-BEDC-DC9BF552E7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="31813500"/>
+          <a:ext cx="13009524" cy="12780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3876190" cy="3038095"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EA1937-56AB-4499-B7FB-89ECD87F226E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10668000"/>
+          <a:ext cx="3876190" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3216,17 +3682,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F83C286-A059-47D3-A31C-BA435181DCEA}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>